--- a/Korean_Codes/FOM_TP_CD.xlsx
+++ b/Korean_Codes/FOM_TP_CD.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Desktop/Korea/opendata4covid19/Korean_Codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BD4B629-8AE8-1A4E-852D-0BE9EB4A17E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E96E6E3-DDAF-6940-AA88-EE01F766F5D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13520" yWindow="10240" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="13520" yWindow="10240" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOM_TP_CD" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>021</t>
   </si>
@@ -156,12 +156,15 @@
   </si>
   <si>
     <t>Prescription drugs</t>
+  </si>
+  <si>
+    <t>$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -998,11 +1001,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1178,6 +1181,14 @@
         <v>38</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
